--- a/Floating Point Test Result.xlsx
+++ b/Floating Point Test Result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="29">
   <si>
     <t>Nucleo F401RE</t>
     <phoneticPr fontId="1"/>
@@ -126,6 +126,10 @@
   </si>
   <si>
     <t>clock:op</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nucleo F303K8</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -399,7 +403,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="en-US"/>
-              <a:t>div</a:t>
+              <a:t>sinf</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="en-US" baseline="0"/>
@@ -435,72 +439,77 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$F$5:$F$34</c:f>
+              <c:f>Sheet2!$F$5:$F$36</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Nucleo F446RE</c:v>
+                  <c:v>Nucleo F303K8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Nucleo F401RE</c:v>
+                  <c:v>Nucleo F303K8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>PSoC 5 LP</c:v>
+                  <c:v>Nucleo F303K8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>PSoC 4</c:v>
+                  <c:v>Nucleo F303K8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Arduino Uno</c:v>
+                  <c:v>Nucleo F303K8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Nucleo F303K8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$I$5:$I$34</c:f>
+              <c:f>Sheet2!$I$5:$I$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.11700000000000001</c:v>
+                  <c:v>0.35699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2505</c:v>
+                  <c:v>2.0110000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.35</c:v>
+                  <c:v>1.9219999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.19</c:v>
+                  <c:v>3.202</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34</c:v>
+                  <c:v>2.5059999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73899999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="115637632"/>
-        <c:axId val="115738880"/>
+        <c:axId val="141189504"/>
+        <c:axId val="141191040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115637632"/>
+        <c:axId val="141189504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115738880"/>
+        <c:crossAx val="141191040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115738880"/>
+        <c:axId val="141191040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -512,7 +521,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115637632"/>
+        <c:crossAx val="141189504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -527,7 +536,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -548,7 +557,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="en-US"/>
-              <a:t>div : clock:op</a:t>
+              <a:t>sinf : clock:op</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -576,72 +585,77 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$F$5:$F$34</c:f>
+              <c:f>Sheet2!$F$5:$F$40</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Nucleo F446RE</c:v>
+                  <c:v>Nucleo F303K8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Nucleo F401RE</c:v>
+                  <c:v>Nucleo F303K8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>PSoC 5 LP</c:v>
+                  <c:v>Nucleo F303K8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>PSoC 4</c:v>
+                  <c:v>Nucleo F303K8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Arduino Uno</c:v>
+                  <c:v>Nucleo F303K8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Nucleo F303K8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$L$5:$L$34</c:f>
+              <c:f>Sheet2!$L$5:$L$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>21.06</c:v>
+                  <c:v>22.847999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.042000000000002</c:v>
+                  <c:v>128.70400000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>188</c:v>
+                  <c:v>123.008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>633.12</c:v>
+                  <c:v>204.928</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>544</c:v>
+                  <c:v>160.38399999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.295999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="146823808"/>
-        <c:axId val="146825600"/>
+        <c:axId val="141200768"/>
+        <c:axId val="141227136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="146823808"/>
+        <c:axId val="141200768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146825600"/>
+        <c:crossAx val="141227136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146825600"/>
+        <c:axId val="141227136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -653,7 +667,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146823808"/>
+        <c:crossAx val="141200768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -668,7 +682,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -679,15 +693,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>583405</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>122061</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>51937</xdr:rowOff>
+      <xdr:colOff>133967</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>123375</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -709,15 +723,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
+      <xdr:colOff>250031</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>598313</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>63843</xdr:rowOff>
+      <xdr:colOff>562594</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>111468</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -740,13 +754,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="E4:L34" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
-  <autoFilter ref="E4:L34">
-    <filterColumn colId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="E4:L40" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="E4:L40">
+    <filterColumn colId="1">
       <filters>
-        <filter val="div"/>
+        <filter val="Nucleo F303K8"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="3"/>
     <filterColumn colId="6"/>
     <filterColumn colId="7"/>
   </autoFilter>
@@ -754,17 +769,17 @@
     <sortCondition ref="E4:E34"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="No" dataDxfId="9"/>
-    <tableColumn id="2" name="Device" dataDxfId="8">
-      <calculatedColumnFormula>VLOOKUP(E5,$A$5:$B$9,2)</calculatedColumnFormula>
+    <tableColumn id="1" name="No" dataDxfId="7"/>
+    <tableColumn id="2" name="Device" dataDxfId="6">
+      <calculatedColumnFormula>VLOOKUP(E5,$A$5:$B$10,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="No2" dataDxfId="7"/>
-    <tableColumn id="4" name="Op" dataDxfId="6">
-      <calculatedColumnFormula>VLOOKUP(G5,$A$12:$B$17,2)</calculatedColumnFormula>
+    <tableColumn id="3" name="No2" dataDxfId="5"/>
+    <tableColumn id="4" name="Op" dataDxfId="4">
+      <calculatedColumnFormula>VLOOKUP(G5,$A$13:$B$18,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="time(us)" dataDxfId="5"/>
-    <tableColumn id="6" name="clock(MHz)" dataDxfId="4">
-      <calculatedColumnFormula>VLOOKUP(E5,$A$5:$C$9,3)</calculatedColumnFormula>
+    <tableColumn id="5" name="time(us)" dataDxfId="3"/>
+    <tableColumn id="6" name="clock(MHz)" dataDxfId="2">
+      <calculatedColumnFormula>VLOOKUP(E5,$A$5:$C$10,3)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="period(us)" dataDxfId="1">
       <calculatedColumnFormula>1/Table3[[#This Row],[clock(MHz)]]</calculatedColumnFormula>
@@ -1577,10 +1592,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1638,7 +1653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" hidden="1">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1652,21 +1667,21 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="str">
-        <f>VLOOKUP(E5,$A$5:$B$9,2)</f>
+        <f>VLOOKUP(E5,$A$5:$B$10,2)</f>
         <v>Nucleo F446RE</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
       </c>
       <c r="H5" s="2" t="str">
-        <f>VLOOKUP(G5,$A$12:$B$17,2)</f>
+        <f>VLOOKUP(G5,$A$13:$B$18,2)</f>
         <v>div</v>
       </c>
       <c r="I5" s="2">
         <v>0.11700000000000001</v>
       </c>
       <c r="J5" s="2">
-        <f>VLOOKUP(E5,$A$5:$C$9,3)</f>
+        <f>VLOOKUP(E5,$A$5:$C$10,3)</f>
         <v>180</v>
       </c>
       <c r="K5" s="3">
@@ -1692,21 +1707,21 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="str">
-        <f>VLOOKUP(E6,$A$5:$B$9,2)</f>
+        <f>VLOOKUP(E6,$A$5:$B$10,2)</f>
         <v>Nucleo F446RE</v>
       </c>
       <c r="G6" s="2">
         <v>2</v>
       </c>
       <c r="H6" s="2" t="str">
-        <f>VLOOKUP(G6,$A$12:$B$17,2)</f>
+        <f>VLOOKUP(G6,$A$13:$B$18,2)</f>
         <v>sinf</v>
       </c>
       <c r="I6" s="2">
         <v>0.49390000000000001</v>
       </c>
       <c r="J6" s="2">
-        <f>VLOOKUP(E6,$A$5:$C$9,3)</f>
+        <f>VLOOKUP(E6,$A$5:$C$10,3)</f>
         <v>180</v>
       </c>
       <c r="K6" s="3">
@@ -1723,30 +1738,30 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="str">
-        <f>VLOOKUP(E7,$A$5:$B$9,2)</f>
+        <f>VLOOKUP(E7,$A$5:$B$10,2)</f>
         <v>Nucleo F446RE</v>
       </c>
       <c r="G7" s="2">
         <v>3</v>
       </c>
       <c r="H7" s="2" t="str">
-        <f>VLOOKUP(G7,$A$12:$B$17,2)</f>
+        <f>VLOOKUP(G7,$A$13:$B$18,2)</f>
         <v>cosf</v>
       </c>
       <c r="I7" s="2">
         <v>0.46650000000000003</v>
       </c>
       <c r="J7" s="2">
-        <f>VLOOKUP(E7,$A$5:$C$9,3)</f>
+        <f>VLOOKUP(E7,$A$5:$C$10,3)</f>
         <v>180</v>
       </c>
       <c r="K7" s="3">
@@ -1763,30 +1778,30 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="str">
-        <f>VLOOKUP(E8,$A$5:$B$9,2)</f>
+        <f>VLOOKUP(E8,$A$5:$B$10,2)</f>
         <v>Nucleo F446RE</v>
       </c>
       <c r="G8" s="2">
         <v>4</v>
       </c>
       <c r="H8" s="2" t="str">
-        <f>VLOOKUP(G8,$A$12:$B$17,2)</f>
+        <f>VLOOKUP(G8,$A$13:$B$18,2)</f>
         <v>expf</v>
       </c>
       <c r="I8" s="2">
         <v>0.67579999999999996</v>
       </c>
       <c r="J8" s="2">
-        <f>VLOOKUP(E8,$A$5:$C$9,3)</f>
+        <f>VLOOKUP(E8,$A$5:$C$10,3)</f>
         <v>180</v>
       </c>
       <c r="K8" s="3">
@@ -1803,30 +1818,30 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="str">
-        <f>VLOOKUP(E9,$A$5:$B$9,2)</f>
+        <f>VLOOKUP(E9,$A$5:$B$10,2)</f>
         <v>Nucleo F446RE</v>
       </c>
       <c r="G9" s="2">
         <v>5</v>
       </c>
       <c r="H9" s="2" t="str">
-        <f>VLOOKUP(G9,$A$12:$B$17,2)</f>
+        <f>VLOOKUP(G9,$A$13:$B$18,2)</f>
         <v>logf</v>
       </c>
       <c r="I9" s="2">
         <v>0.61399999999999999</v>
       </c>
       <c r="J9" s="2">
-        <f>VLOOKUP(E9,$A$5:$C$9,3)</f>
+        <f>VLOOKUP(E9,$A$5:$C$10,3)</f>
         <v>180</v>
       </c>
       <c r="K9" s="3">
@@ -1839,25 +1854,34 @@
       </c>
     </row>
     <row r="10" spans="1:12" hidden="1">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2">
+        <v>16</v>
+      </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="str">
-        <f>VLOOKUP(E10,$A$5:$B$9,2)</f>
+        <f>VLOOKUP(E10,$A$5:$B$10,2)</f>
         <v>Nucleo F446RE</v>
       </c>
       <c r="G10" s="2">
         <v>6</v>
       </c>
       <c r="H10" s="2" t="str">
-        <f>VLOOKUP(G10,$A$12:$B$17,2)</f>
+        <f>VLOOKUP(G10,$A$13:$B$18,2)</f>
         <v>sqrtf</v>
       </c>
       <c r="I10" s="2">
         <v>0.2392</v>
       </c>
       <c r="J10" s="2">
-        <f>VLOOKUP(E10,$A$5:$C$9,3)</f>
+        <f>VLOOKUP(E10,$A$5:$C$10,3)</f>
         <v>180</v>
       </c>
       <c r="K10" s="3">
@@ -1869,29 +1893,26 @@
         <v>43.055999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
+    <row r="11" spans="1:12" hidden="1">
       <c r="E11" s="2">
         <v>2</v>
       </c>
       <c r="F11" s="2" t="str">
-        <f>VLOOKUP(E11,$A$5:$B$9,2)</f>
+        <f>VLOOKUP(E11,$A$5:$B$10,2)</f>
         <v>Nucleo F401RE</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
       </c>
       <c r="H11" s="2" t="str">
-        <f>VLOOKUP(G11,$A$12:$B$17,2)</f>
+        <f>VLOOKUP(G11,$A$13:$B$18,2)</f>
         <v>div</v>
       </c>
       <c r="I11" s="2">
         <v>0.2505</v>
       </c>
       <c r="J11" s="2">
-        <f>VLOOKUP(E11,$A$5:$C$9,3)</f>
+        <f>VLOOKUP(E11,$A$5:$C$10,3)</f>
         <v>84</v>
       </c>
       <c r="K11" s="3">
@@ -1904,31 +1925,28 @@
       </c>
     </row>
     <row r="12" spans="1:12" hidden="1">
-      <c r="A12" s="2">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>1</v>
+      <c r="A12" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
       </c>
       <c r="F12" s="2" t="str">
-        <f>VLOOKUP(E12,$A$5:$B$9,2)</f>
+        <f>VLOOKUP(E12,$A$5:$B$10,2)</f>
         <v>Nucleo F401RE</v>
       </c>
       <c r="G12" s="2">
         <v>2</v>
       </c>
       <c r="H12" s="2" t="str">
-        <f>VLOOKUP(G12,$A$12:$B$17,2)</f>
+        <f>VLOOKUP(G12,$A$13:$B$18,2)</f>
         <v>sinf</v>
       </c>
       <c r="I12" s="2">
         <v>1.0108999999999999</v>
       </c>
       <c r="J12" s="2">
-        <f>VLOOKUP(E12,$A$5:$C$9,3)</f>
+        <f>VLOOKUP(E12,$A$5:$C$10,3)</f>
         <v>84</v>
       </c>
       <c r="K12" s="3">
@@ -1942,30 +1960,30 @@
     </row>
     <row r="13" spans="1:12" hidden="1">
       <c r="A13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2">
         <v>2</v>
       </c>
       <c r="F13" s="2" t="str">
-        <f>VLOOKUP(E13,$A$5:$B$9,2)</f>
+        <f>VLOOKUP(E13,$A$5:$B$10,2)</f>
         <v>Nucleo F401RE</v>
       </c>
       <c r="G13" s="2">
         <v>3</v>
       </c>
       <c r="H13" s="2" t="str">
-        <f>VLOOKUP(G13,$A$12:$B$17,2)</f>
+        <f>VLOOKUP(G13,$A$13:$B$18,2)</f>
         <v>cosf</v>
       </c>
       <c r="I13" s="2">
         <v>0.96399999999999997</v>
       </c>
       <c r="J13" s="2">
-        <f>VLOOKUP(E13,$A$5:$C$9,3)</f>
+        <f>VLOOKUP(E13,$A$5:$C$10,3)</f>
         <v>84</v>
       </c>
       <c r="K13" s="3">
@@ -1979,30 +1997,30 @@
     </row>
     <row r="14" spans="1:12" hidden="1">
       <c r="A14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
       </c>
       <c r="F14" s="2" t="str">
-        <f>VLOOKUP(E14,$A$5:$B$9,2)</f>
+        <f>VLOOKUP(E14,$A$5:$B$10,2)</f>
         <v>Nucleo F401RE</v>
       </c>
       <c r="G14" s="2">
         <v>4</v>
       </c>
       <c r="H14" s="2" t="str">
-        <f>VLOOKUP(G14,$A$12:$B$17,2)</f>
+        <f>VLOOKUP(G14,$A$13:$B$18,2)</f>
         <v>expf</v>
       </c>
       <c r="I14" s="2">
         <v>1.4127000000000001</v>
       </c>
       <c r="J14" s="2">
-        <f>VLOOKUP(E14,$A$5:$C$9,3)</f>
+        <f>VLOOKUP(E14,$A$5:$C$10,3)</f>
         <v>84</v>
       </c>
       <c r="K14" s="3">
@@ -2016,30 +2034,30 @@
     </row>
     <row r="15" spans="1:12" hidden="1">
       <c r="A15" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
       </c>
       <c r="F15" s="2" t="str">
-        <f>VLOOKUP(E15,$A$5:$B$9,2)</f>
+        <f>VLOOKUP(E15,$A$5:$B$10,2)</f>
         <v>Nucleo F401RE</v>
       </c>
       <c r="G15" s="2">
         <v>5</v>
       </c>
       <c r="H15" s="2" t="str">
-        <f>VLOOKUP(G15,$A$12:$B$17,2)</f>
+        <f>VLOOKUP(G15,$A$13:$B$18,2)</f>
         <v>logf</v>
       </c>
       <c r="I15" s="2">
         <v>1.3038000000000001</v>
       </c>
       <c r="J15" s="2">
-        <f>VLOOKUP(E15,$A$5:$C$9,3)</f>
+        <f>VLOOKUP(E15,$A$5:$C$10,3)</f>
         <v>84</v>
       </c>
       <c r="K15" s="3">
@@ -2053,30 +2071,30 @@
     </row>
     <row r="16" spans="1:12" hidden="1">
       <c r="A16" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="2">
         <v>2</v>
       </c>
       <c r="F16" s="2" t="str">
-        <f>VLOOKUP(E16,$A$5:$B$9,2)</f>
+        <f>VLOOKUP(E16,$A$5:$B$10,2)</f>
         <v>Nucleo F401RE</v>
       </c>
       <c r="G16" s="2">
         <v>6</v>
       </c>
       <c r="H16" s="2" t="str">
-        <f>VLOOKUP(G16,$A$12:$B$17,2)</f>
+        <f>VLOOKUP(G16,$A$13:$B$18,2)</f>
         <v>sqrtf</v>
       </c>
       <c r="I16" s="2">
         <v>0.51270000000000004</v>
       </c>
       <c r="J16" s="2">
-        <f>VLOOKUP(E16,$A$5:$C$9,3)</f>
+        <f>VLOOKUP(E16,$A$5:$C$10,3)</f>
         <v>84</v>
       </c>
       <c r="K16" s="3">
@@ -2090,225 +2108,231 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17" s="2">
         <v>3</v>
       </c>
       <c r="F17" s="2" t="str">
-        <f>VLOOKUP(E17,$A$5:$B$9,2)</f>
-        <v>PSoC 5 LP</v>
+        <f>VLOOKUP(E17,$A$5:$B$10,2)</f>
+        <v>Nucleo F303K8</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
       </c>
       <c r="H17" s="2" t="str">
-        <f>VLOOKUP(G17,$A$12:$B$17,2)</f>
+        <f>VLOOKUP(G17,$A$13:$B$18,2)</f>
         <v>div</v>
       </c>
       <c r="I17" s="2">
-        <v>2.35</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="J17" s="2">
-        <f>VLOOKUP(E17,$A$5:$C$9,3)</f>
-        <v>80</v>
+        <f>VLOOKUP(E17,$A$5:$C$10,3)</f>
+        <v>64</v>
       </c>
       <c r="K17" s="3">
         <f>1/Table3[[#This Row],[clock(MHz)]]</f>
-        <v>1.2500000000000001E-2</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="L17" s="3">
         <f>Table3[[#This Row],[time(us)]]/Table3[[#This Row],[period(us)]]</f>
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" hidden="1">
+        <v>22.847999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="2">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E18" s="2">
         <v>3</v>
       </c>
       <c r="F18" s="2" t="str">
-        <f>VLOOKUP(E18,$A$5:$B$9,2)</f>
-        <v>PSoC 5 LP</v>
+        <f>VLOOKUP(E18,$A$5:$B$10,2)</f>
+        <v>Nucleo F303K8</v>
       </c>
       <c r="G18" s="2">
         <v>2</v>
       </c>
       <c r="H18" s="2" t="str">
-        <f>VLOOKUP(G18,$A$12:$B$17,2)</f>
+        <f>VLOOKUP(G18,$A$13:$B$18,2)</f>
         <v>sinf</v>
       </c>
       <c r="I18" s="2">
-        <v>17.25</v>
+        <v>2.0110000000000001</v>
       </c>
       <c r="J18" s="2">
-        <f>VLOOKUP(E18,$A$5:$C$9,3)</f>
-        <v>80</v>
+        <f>VLOOKUP(E18,$A$5:$C$10,3)</f>
+        <v>64</v>
       </c>
       <c r="K18" s="3">
         <f>1/Table3[[#This Row],[clock(MHz)]]</f>
-        <v>1.2500000000000001E-2</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="L18" s="3">
         <f>Table3[[#This Row],[time(us)]]/Table3[[#This Row],[period(us)]]</f>
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" hidden="1">
+        <v>128.70400000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="E19" s="2">
         <v>3</v>
       </c>
       <c r="F19" s="2" t="str">
-        <f>VLOOKUP(E19,$A$5:$B$9,2)</f>
-        <v>PSoC 5 LP</v>
+        <f>VLOOKUP(E19,$A$5:$B$10,2)</f>
+        <v>Nucleo F303K8</v>
       </c>
       <c r="G19" s="2">
         <v>3</v>
       </c>
       <c r="H19" s="2" t="str">
-        <f>VLOOKUP(G19,$A$12:$B$17,2)</f>
+        <f>VLOOKUP(G19,$A$13:$B$18,2)</f>
         <v>cosf</v>
       </c>
       <c r="I19" s="2">
-        <v>20.69</v>
+        <v>1.9219999999999999</v>
       </c>
       <c r="J19" s="2">
-        <f>VLOOKUP(E19,$A$5:$C$9,3)</f>
-        <v>80</v>
+        <f>VLOOKUP(E19,$A$5:$C$10,3)</f>
+        <v>64</v>
       </c>
       <c r="K19" s="3">
         <f>1/Table3[[#This Row],[clock(MHz)]]</f>
-        <v>1.2500000000000001E-2</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="L19" s="3">
         <f>Table3[[#This Row],[time(us)]]/Table3[[#This Row],[period(us)]]</f>
-        <v>1655.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" hidden="1">
+        <v>123.008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="E20" s="2">
         <v>3</v>
       </c>
       <c r="F20" s="2" t="str">
-        <f>VLOOKUP(E20,$A$5:$B$9,2)</f>
-        <v>PSoC 5 LP</v>
+        <f>VLOOKUP(E20,$A$5:$B$10,2)</f>
+        <v>Nucleo F303K8</v>
       </c>
       <c r="G20" s="2">
         <v>4</v>
       </c>
       <c r="H20" s="2" t="str">
-        <f>VLOOKUP(G20,$A$12:$B$17,2)</f>
+        <f>VLOOKUP(G20,$A$13:$B$18,2)</f>
         <v>expf</v>
       </c>
       <c r="I20" s="2">
-        <v>27.05</v>
+        <v>3.202</v>
       </c>
       <c r="J20" s="2">
-        <f>VLOOKUP(E20,$A$5:$C$9,3)</f>
-        <v>80</v>
+        <f>VLOOKUP(E20,$A$5:$C$10,3)</f>
+        <v>64</v>
       </c>
       <c r="K20" s="3">
         <f>1/Table3[[#This Row],[clock(MHz)]]</f>
-        <v>1.2500000000000001E-2</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="L20" s="3">
         <f>Table3[[#This Row],[time(us)]]/Table3[[#This Row],[period(us)]]</f>
-        <v>2164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" hidden="1">
+        <v>204.928</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="E21" s="2">
         <v>3</v>
       </c>
       <c r="F21" s="2" t="str">
-        <f>VLOOKUP(E21,$A$5:$B$9,2)</f>
-        <v>PSoC 5 LP</v>
+        <f>VLOOKUP(E21,$A$5:$B$10,2)</f>
+        <v>Nucleo F303K8</v>
       </c>
       <c r="G21" s="2">
         <v>5</v>
       </c>
       <c r="H21" s="2" t="str">
-        <f>VLOOKUP(G21,$A$12:$B$17,2)</f>
+        <f>VLOOKUP(G21,$A$13:$B$18,2)</f>
         <v>logf</v>
       </c>
       <c r="I21" s="2">
-        <v>29.78</v>
+        <v>2.5059999999999998</v>
       </c>
       <c r="J21" s="2">
-        <f>VLOOKUP(E21,$A$5:$C$9,3)</f>
-        <v>80</v>
+        <f>VLOOKUP(E21,$A$5:$C$10,3)</f>
+        <v>64</v>
       </c>
       <c r="K21" s="3">
         <f>1/Table3[[#This Row],[clock(MHz)]]</f>
-        <v>1.2500000000000001E-2</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="L21" s="3">
         <f>Table3[[#This Row],[time(us)]]/Table3[[#This Row],[period(us)]]</f>
-        <v>2382.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" hidden="1">
+        <v>160.38399999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="E22" s="2">
         <v>3</v>
       </c>
       <c r="F22" s="2" t="str">
-        <f>VLOOKUP(E22,$A$5:$B$9,2)</f>
-        <v>PSoC 5 LP</v>
+        <f>VLOOKUP(E22,$A$5:$B$10,2)</f>
+        <v>Nucleo F303K8</v>
       </c>
       <c r="G22" s="2">
         <v>6</v>
       </c>
       <c r="H22" s="2" t="str">
-        <f>VLOOKUP(G22,$A$12:$B$17,2)</f>
+        <f>VLOOKUP(G22,$A$13:$B$18,2)</f>
         <v>sqrtf</v>
       </c>
       <c r="I22" s="2">
-        <v>9.07</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="J22" s="2">
-        <f>VLOOKUP(E22,$A$5:$C$9,3)</f>
-        <v>80</v>
+        <f>VLOOKUP(E22,$A$5:$C$10,3)</f>
+        <v>64</v>
       </c>
       <c r="K22" s="3">
         <f>1/Table3[[#This Row],[clock(MHz)]]</f>
-        <v>1.2500000000000001E-2</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="L22" s="3">
         <f>Table3[[#This Row],[time(us)]]/Table3[[#This Row],[period(us)]]</f>
-        <v>725.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>47.295999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" hidden="1">
       <c r="E23" s="2">
         <v>4</v>
       </c>
       <c r="F23" s="2" t="str">
-        <f>VLOOKUP(E23,$A$5:$B$9,2)</f>
-        <v>PSoC 4</v>
+        <f>VLOOKUP(E23,$A$5:$B$10,2)</f>
+        <v>PSoC 5 LP</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
       </c>
       <c r="H23" s="2" t="str">
-        <f>VLOOKUP(G23,$A$12:$B$17,2)</f>
+        <f>VLOOKUP(G23,$A$13:$B$18,2)</f>
         <v>div</v>
       </c>
       <c r="I23" s="2">
-        <v>13.19</v>
+        <v>2.35</v>
       </c>
       <c r="J23" s="2">
-        <f>VLOOKUP(E23,$A$5:$C$9,3)</f>
-        <v>48</v>
+        <f>VLOOKUP(E23,$A$5:$C$10,3)</f>
+        <v>80</v>
       </c>
       <c r="K23" s="3">
         <f>1/Table3[[#This Row],[clock(MHz)]]</f>
-        <v>2.0833333333333332E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="L23" s="3">
         <f>Table3[[#This Row],[time(us)]]/Table3[[#This Row],[period(us)]]</f>
-        <v>633.12</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:12" hidden="1">
@@ -2316,30 +2340,30 @@
         <v>4</v>
       </c>
       <c r="F24" s="2" t="str">
-        <f>VLOOKUP(E24,$A$5:$B$9,2)</f>
-        <v>PSoC 4</v>
+        <f>VLOOKUP(E24,$A$5:$B$10,2)</f>
+        <v>PSoC 5 LP</v>
       </c>
       <c r="G24" s="2">
         <v>2</v>
       </c>
       <c r="H24" s="2" t="str">
-        <f>VLOOKUP(G24,$A$12:$B$17,2)</f>
+        <f>VLOOKUP(G24,$A$13:$B$18,2)</f>
         <v>sinf</v>
       </c>
       <c r="I24" s="2">
-        <v>69.17</v>
+        <v>17.25</v>
       </c>
       <c r="J24" s="2">
-        <f>VLOOKUP(E24,$A$5:$C$9,3)</f>
-        <v>48</v>
+        <f>VLOOKUP(E24,$A$5:$C$10,3)</f>
+        <v>80</v>
       </c>
       <c r="K24" s="3">
         <f>1/Table3[[#This Row],[clock(MHz)]]</f>
-        <v>2.0833333333333332E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="L24" s="3">
         <f>Table3[[#This Row],[time(us)]]/Table3[[#This Row],[period(us)]]</f>
-        <v>3320.1600000000003</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="25" spans="1:12" hidden="1">
@@ -2347,30 +2371,30 @@
         <v>4</v>
       </c>
       <c r="F25" s="2" t="str">
-        <f>VLOOKUP(E25,$A$5:$B$9,2)</f>
-        <v>PSoC 4</v>
+        <f>VLOOKUP(E25,$A$5:$B$10,2)</f>
+        <v>PSoC 5 LP</v>
       </c>
       <c r="G25" s="2">
         <v>3</v>
       </c>
       <c r="H25" s="2" t="str">
-        <f>VLOOKUP(G25,$A$12:$B$17,2)</f>
+        <f>VLOOKUP(G25,$A$13:$B$18,2)</f>
         <v>cosf</v>
       </c>
       <c r="I25" s="2">
+        <v>20.69</v>
+      </c>
+      <c r="J25" s="2">
+        <f>VLOOKUP(E25,$A$5:$C$10,3)</f>
         <v>80</v>
       </c>
-      <c r="J25" s="2">
-        <f>VLOOKUP(E25,$A$5:$C$9,3)</f>
-        <v>48</v>
-      </c>
       <c r="K25" s="3">
         <f>1/Table3[[#This Row],[clock(MHz)]]</f>
-        <v>2.0833333333333332E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="L25" s="3">
         <f>Table3[[#This Row],[time(us)]]/Table3[[#This Row],[period(us)]]</f>
-        <v>3840</v>
+        <v>1655.2</v>
       </c>
     </row>
     <row r="26" spans="1:12" hidden="1">
@@ -2378,30 +2402,30 @@
         <v>4</v>
       </c>
       <c r="F26" s="2" t="str">
-        <f>VLOOKUP(E26,$A$5:$B$9,2)</f>
-        <v>PSoC 4</v>
+        <f>VLOOKUP(E26,$A$5:$B$10,2)</f>
+        <v>PSoC 5 LP</v>
       </c>
       <c r="G26" s="2">
         <v>4</v>
       </c>
       <c r="H26" s="2" t="str">
-        <f>VLOOKUP(G26,$A$12:$B$17,2)</f>
+        <f>VLOOKUP(G26,$A$13:$B$18,2)</f>
         <v>expf</v>
       </c>
       <c r="I26" s="2">
-        <v>86.38</v>
+        <v>27.05</v>
       </c>
       <c r="J26" s="2">
-        <f>VLOOKUP(E26,$A$5:$C$9,3)</f>
-        <v>48</v>
+        <f>VLOOKUP(E26,$A$5:$C$10,3)</f>
+        <v>80</v>
       </c>
       <c r="K26" s="3">
         <f>1/Table3[[#This Row],[clock(MHz)]]</f>
-        <v>2.0833333333333332E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="L26" s="3">
         <f>Table3[[#This Row],[time(us)]]/Table3[[#This Row],[period(us)]]</f>
-        <v>4146.24</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="27" spans="1:12" hidden="1">
@@ -2409,30 +2433,30 @@
         <v>4</v>
       </c>
       <c r="F27" s="2" t="str">
-        <f>VLOOKUP(E27,$A$5:$B$9,2)</f>
-        <v>PSoC 4</v>
+        <f>VLOOKUP(E27,$A$5:$B$10,2)</f>
+        <v>PSoC 5 LP</v>
       </c>
       <c r="G27" s="2">
         <v>5</v>
       </c>
       <c r="H27" s="2" t="str">
-        <f>VLOOKUP(G27,$A$12:$B$17,2)</f>
+        <f>VLOOKUP(G27,$A$13:$B$18,2)</f>
         <v>logf</v>
       </c>
       <c r="I27" s="2">
-        <v>106.25</v>
+        <v>29.78</v>
       </c>
       <c r="J27" s="2">
-        <f>VLOOKUP(E27,$A$5:$C$9,3)</f>
-        <v>48</v>
+        <f>VLOOKUP(E27,$A$5:$C$10,3)</f>
+        <v>80</v>
       </c>
       <c r="K27" s="3">
         <f>1/Table3[[#This Row],[clock(MHz)]]</f>
-        <v>2.0833333333333332E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="L27" s="3">
         <f>Table3[[#This Row],[time(us)]]/Table3[[#This Row],[period(us)]]</f>
-        <v>5100</v>
+        <v>2382.4</v>
       </c>
     </row>
     <row r="28" spans="1:12" hidden="1">
@@ -2440,61 +2464,61 @@
         <v>4</v>
       </c>
       <c r="F28" s="2" t="str">
-        <f>VLOOKUP(E28,$A$5:$B$9,2)</f>
-        <v>PSoC 4</v>
+        <f>VLOOKUP(E28,$A$5:$B$10,2)</f>
+        <v>PSoC 5 LP</v>
       </c>
       <c r="G28" s="2">
         <v>6</v>
       </c>
       <c r="H28" s="2" t="str">
-        <f>VLOOKUP(G28,$A$12:$B$17,2)</f>
+        <f>VLOOKUP(G28,$A$13:$B$18,2)</f>
         <v>sqrtf</v>
       </c>
       <c r="I28" s="2">
-        <v>24.35</v>
+        <v>9.07</v>
       </c>
       <c r="J28" s="2">
-        <f>VLOOKUP(E28,$A$5:$C$9,3)</f>
-        <v>48</v>
+        <f>VLOOKUP(E28,$A$5:$C$10,3)</f>
+        <v>80</v>
       </c>
       <c r="K28" s="3">
         <f>1/Table3[[#This Row],[clock(MHz)]]</f>
-        <v>2.0833333333333332E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="L28" s="3">
         <f>Table3[[#This Row],[time(us)]]/Table3[[#This Row],[period(us)]]</f>
-        <v>1168.8000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>725.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" hidden="1">
       <c r="E29" s="2">
         <v>5</v>
       </c>
       <c r="F29" s="2" t="str">
-        <f>VLOOKUP(E29,$A$5:$B$9,2)</f>
-        <v>Arduino Uno</v>
+        <f>VLOOKUP(E29,$A$5:$B$10,2)</f>
+        <v>PSoC 4</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
       </c>
       <c r="H29" s="2" t="str">
-        <f>VLOOKUP(G29,$A$12:$B$17,2)</f>
+        <f>VLOOKUP(G29,$A$13:$B$18,2)</f>
         <v>div</v>
       </c>
       <c r="I29" s="2">
-        <v>34</v>
+        <v>13.19</v>
       </c>
       <c r="J29" s="2">
-        <f>VLOOKUP(E29,$A$5:$C$9,3)</f>
-        <v>16</v>
+        <f>VLOOKUP(E29,$A$5:$C$10,3)</f>
+        <v>48</v>
       </c>
       <c r="K29" s="3">
         <f>1/Table3[[#This Row],[clock(MHz)]]</f>
-        <v>6.25E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="L29" s="3">
         <f>Table3[[#This Row],[time(us)]]/Table3[[#This Row],[period(us)]]</f>
-        <v>544</v>
+        <v>633.12</v>
       </c>
     </row>
     <row r="30" spans="1:12" hidden="1">
@@ -2502,30 +2526,30 @@
         <v>5</v>
       </c>
       <c r="F30" s="2" t="str">
-        <f>VLOOKUP(E30,$A$5:$B$9,2)</f>
-        <v>Arduino Uno</v>
+        <f>VLOOKUP(E30,$A$5:$B$10,2)</f>
+        <v>PSoC 4</v>
       </c>
       <c r="G30" s="2">
         <v>2</v>
       </c>
       <c r="H30" s="2" t="str">
-        <f>VLOOKUP(G30,$A$12:$B$17,2)</f>
+        <f>VLOOKUP(G30,$A$13:$B$18,2)</f>
         <v>sinf</v>
       </c>
       <c r="I30" s="2">
-        <v>139.24</v>
+        <v>69.17</v>
       </c>
       <c r="J30" s="2">
-        <f>VLOOKUP(E30,$A$5:$C$9,3)</f>
-        <v>16</v>
+        <f>VLOOKUP(E30,$A$5:$C$10,3)</f>
+        <v>48</v>
       </c>
       <c r="K30" s="3">
         <f>1/Table3[[#This Row],[clock(MHz)]]</f>
-        <v>6.25E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="L30" s="3">
         <f>Table3[[#This Row],[time(us)]]/Table3[[#This Row],[period(us)]]</f>
-        <v>2227.84</v>
+        <v>3320.1600000000003</v>
       </c>
     </row>
     <row r="31" spans="1:12" hidden="1">
@@ -2533,30 +2557,30 @@
         <v>5</v>
       </c>
       <c r="F31" s="2" t="str">
-        <f>VLOOKUP(E31,$A$5:$B$9,2)</f>
-        <v>Arduino Uno</v>
+        <f>VLOOKUP(E31,$A$5:$B$10,2)</f>
+        <v>PSoC 4</v>
       </c>
       <c r="G31" s="2">
         <v>3</v>
       </c>
       <c r="H31" s="2" t="str">
-        <f>VLOOKUP(G31,$A$12:$B$17,2)</f>
+        <f>VLOOKUP(G31,$A$13:$B$18,2)</f>
         <v>cosf</v>
       </c>
       <c r="I31" s="2">
-        <v>146.52000000000001</v>
+        <v>80</v>
       </c>
       <c r="J31" s="2">
-        <f>VLOOKUP(E31,$A$5:$C$9,3)</f>
-        <v>16</v>
+        <f>VLOOKUP(E31,$A$5:$C$10,3)</f>
+        <v>48</v>
       </c>
       <c r="K31" s="3">
         <f>1/Table3[[#This Row],[clock(MHz)]]</f>
-        <v>6.25E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="L31" s="3">
         <f>Table3[[#This Row],[time(us)]]/Table3[[#This Row],[period(us)]]</f>
-        <v>2344.3200000000002</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="32" spans="1:12" hidden="1">
@@ -2564,30 +2588,30 @@
         <v>5</v>
       </c>
       <c r="F32" s="2" t="str">
-        <f>VLOOKUP(E32,$A$5:$B$9,2)</f>
-        <v>Arduino Uno</v>
+        <f>VLOOKUP(E32,$A$5:$B$10,2)</f>
+        <v>PSoC 4</v>
       </c>
       <c r="G32" s="2">
         <v>4</v>
       </c>
       <c r="H32" s="2" t="str">
-        <f>VLOOKUP(G32,$A$12:$B$17,2)</f>
+        <f>VLOOKUP(G32,$A$13:$B$18,2)</f>
         <v>expf</v>
       </c>
       <c r="I32" s="2">
-        <v>196.2</v>
+        <v>86.38</v>
       </c>
       <c r="J32" s="2">
-        <f>VLOOKUP(E32,$A$5:$C$9,3)</f>
-        <v>16</v>
+        <f>VLOOKUP(E32,$A$5:$C$10,3)</f>
+        <v>48</v>
       </c>
       <c r="K32" s="3">
         <f>1/Table3[[#This Row],[clock(MHz)]]</f>
-        <v>6.25E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="L32" s="3">
         <f>Table3[[#This Row],[time(us)]]/Table3[[#This Row],[period(us)]]</f>
-        <v>3139.2</v>
+        <v>4146.24</v>
       </c>
     </row>
     <row r="33" spans="5:12" hidden="1">
@@ -2595,30 +2619,30 @@
         <v>5</v>
       </c>
       <c r="F33" s="2" t="str">
-        <f>VLOOKUP(E33,$A$5:$B$9,2)</f>
-        <v>Arduino Uno</v>
+        <f>VLOOKUP(E33,$A$5:$B$10,2)</f>
+        <v>PSoC 4</v>
       </c>
       <c r="G33" s="2">
         <v>5</v>
       </c>
       <c r="H33" s="2" t="str">
-        <f>VLOOKUP(G33,$A$12:$B$17,2)</f>
+        <f>VLOOKUP(G33,$A$13:$B$18,2)</f>
         <v>logf</v>
       </c>
       <c r="I33" s="2">
-        <v>182.4</v>
+        <v>106.25</v>
       </c>
       <c r="J33" s="2">
-        <f>VLOOKUP(E33,$A$5:$C$9,3)</f>
-        <v>16</v>
+        <f>VLOOKUP(E33,$A$5:$C$10,3)</f>
+        <v>48</v>
       </c>
       <c r="K33" s="3">
         <f>1/Table3[[#This Row],[clock(MHz)]]</f>
-        <v>6.25E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="L33" s="3">
         <f>Table3[[#This Row],[time(us)]]/Table3[[#This Row],[period(us)]]</f>
-        <v>2918.4</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="34" spans="5:12" hidden="1">
@@ -2626,28 +2650,214 @@
         <v>5</v>
       </c>
       <c r="F34" s="2" t="str">
-        <f>VLOOKUP(E34,$A$5:$B$9,2)</f>
-        <v>Arduino Uno</v>
+        <f>VLOOKUP(E34,$A$5:$B$10,2)</f>
+        <v>PSoC 4</v>
       </c>
       <c r="G34" s="2">
         <v>6</v>
       </c>
       <c r="H34" s="2" t="str">
-        <f>VLOOKUP(G34,$A$12:$B$17,2)</f>
+        <f>VLOOKUP(G34,$A$13:$B$18,2)</f>
         <v>sqrtf</v>
       </c>
       <c r="I34" s="2">
+        <v>24.35</v>
+      </c>
+      <c r="J34" s="2">
+        <f>VLOOKUP(E34,$A$5:$C$10,3)</f>
+        <v>48</v>
+      </c>
+      <c r="K34" s="3">
+        <f>1/Table3[[#This Row],[clock(MHz)]]</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="L34" s="3">
+        <f>Table3[[#This Row],[time(us)]]/Table3[[#This Row],[period(us)]]</f>
+        <v>1168.8000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12" hidden="1">
+      <c r="E35" s="2">
+        <v>6</v>
+      </c>
+      <c r="F35" s="2" t="str">
+        <f>VLOOKUP(E35,$A$5:$B$10,2)</f>
+        <v>Arduino Uno</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2" t="str">
+        <f>VLOOKUP(G35,$A$13:$B$18,2)</f>
+        <v>div</v>
+      </c>
+      <c r="I35" s="2">
+        <v>34</v>
+      </c>
+      <c r="J35" s="2">
+        <f>VLOOKUP(E35,$A$5:$C$10,3)</f>
+        <v>16</v>
+      </c>
+      <c r="K35" s="3">
+        <f>1/Table3[[#This Row],[clock(MHz)]]</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="L35" s="3">
+        <f>Table3[[#This Row],[time(us)]]/Table3[[#This Row],[period(us)]]</f>
+        <v>544</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12" hidden="1">
+      <c r="E36" s="2">
+        <v>6</v>
+      </c>
+      <c r="F36" s="2" t="str">
+        <f>VLOOKUP(E36,$A$5:$B$10,2)</f>
+        <v>Arduino Uno</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2</v>
+      </c>
+      <c r="H36" s="2" t="str">
+        <f>VLOOKUP(G36,$A$13:$B$18,2)</f>
+        <v>sinf</v>
+      </c>
+      <c r="I36" s="2">
+        <v>139.24</v>
+      </c>
+      <c r="J36" s="2">
+        <f>VLOOKUP(E36,$A$5:$C$10,3)</f>
+        <v>16</v>
+      </c>
+      <c r="K36" s="3">
+        <f>1/Table3[[#This Row],[clock(MHz)]]</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="L36" s="3">
+        <f>Table3[[#This Row],[time(us)]]/Table3[[#This Row],[period(us)]]</f>
+        <v>2227.84</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12" hidden="1">
+      <c r="E37" s="2">
+        <v>6</v>
+      </c>
+      <c r="F37" s="2" t="str">
+        <f>VLOOKUP(E37,$A$5:$B$10,2)</f>
+        <v>Arduino Uno</v>
+      </c>
+      <c r="G37" s="2">
+        <v>3</v>
+      </c>
+      <c r="H37" s="2" t="str">
+        <f>VLOOKUP(G37,$A$13:$B$18,2)</f>
+        <v>cosf</v>
+      </c>
+      <c r="I37" s="2">
+        <v>146.52000000000001</v>
+      </c>
+      <c r="J37" s="2">
+        <f>VLOOKUP(E37,$A$5:$C$10,3)</f>
+        <v>16</v>
+      </c>
+      <c r="K37" s="3">
+        <f>1/Table3[[#This Row],[clock(MHz)]]</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="L37" s="3">
+        <f>Table3[[#This Row],[time(us)]]/Table3[[#This Row],[period(us)]]</f>
+        <v>2344.3200000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12" hidden="1">
+      <c r="E38" s="2">
+        <v>6</v>
+      </c>
+      <c r="F38" s="2" t="str">
+        <f>VLOOKUP(E38,$A$5:$B$10,2)</f>
+        <v>Arduino Uno</v>
+      </c>
+      <c r="G38" s="2">
+        <v>4</v>
+      </c>
+      <c r="H38" s="2" t="str">
+        <f>VLOOKUP(G38,$A$13:$B$18,2)</f>
+        <v>expf</v>
+      </c>
+      <c r="I38" s="2">
+        <v>196.2</v>
+      </c>
+      <c r="J38" s="2">
+        <f>VLOOKUP(E38,$A$5:$C$10,3)</f>
+        <v>16</v>
+      </c>
+      <c r="K38" s="3">
+        <f>1/Table3[[#This Row],[clock(MHz)]]</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="L38" s="3">
+        <f>Table3[[#This Row],[time(us)]]/Table3[[#This Row],[period(us)]]</f>
+        <v>3139.2</v>
+      </c>
+    </row>
+    <row r="39" spans="5:12" hidden="1">
+      <c r="E39" s="2">
+        <v>6</v>
+      </c>
+      <c r="F39" s="2" t="str">
+        <f>VLOOKUP(E39,$A$5:$B$10,2)</f>
+        <v>Arduino Uno</v>
+      </c>
+      <c r="G39" s="2">
+        <v>5</v>
+      </c>
+      <c r="H39" s="2" t="str">
+        <f>VLOOKUP(G39,$A$13:$B$18,2)</f>
+        <v>logf</v>
+      </c>
+      <c r="I39" s="2">
+        <v>182.4</v>
+      </c>
+      <c r="J39" s="2">
+        <f>VLOOKUP(E39,$A$5:$C$10,3)</f>
+        <v>16</v>
+      </c>
+      <c r="K39" s="3">
+        <f>1/Table3[[#This Row],[clock(MHz)]]</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="L39" s="3">
+        <f>Table3[[#This Row],[time(us)]]/Table3[[#This Row],[period(us)]]</f>
+        <v>2918.4</v>
+      </c>
+    </row>
+    <row r="40" spans="5:12" hidden="1">
+      <c r="E40" s="2">
+        <v>6</v>
+      </c>
+      <c r="F40" s="2" t="str">
+        <f>VLOOKUP(E40,$A$5:$B$10,2)</f>
+        <v>Arduino Uno</v>
+      </c>
+      <c r="G40" s="2">
+        <v>6</v>
+      </c>
+      <c r="H40" s="2" t="str">
+        <f>VLOOKUP(G40,$A$13:$B$18,2)</f>
+        <v>sqrtf</v>
+      </c>
+      <c r="I40" s="2">
         <v>64.08</v>
       </c>
-      <c r="J34" s="2">
-        <f>VLOOKUP(E34,$A$5:$C$9,3)</f>
+      <c r="J40" s="2">
+        <f>VLOOKUP(E40,$A$5:$C$10,3)</f>
         <v>16</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K40" s="3">
         <f>1/Table3[[#This Row],[clock(MHz)]]</f>
         <v>6.25E-2</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L40" s="3">
         <f>Table3[[#This Row],[time(us)]]/Table3[[#This Row],[period(us)]]</f>
         <v>1025.28</v>
       </c>
